--- a/medicine/Enfance/Wiggins_et_les_Plans_de_l'ingénieur/Wiggins_et_les_Plans_de_l'ingénieur.xlsx
+++ b/medicine/Enfance/Wiggins_et_les_Plans_de_l'ingénieur/Wiggins_et_les_Plans_de_l'ingénieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Wiggins_et_les_Plans_de_l%27ing%C3%A9nieur</t>
+          <t>Wiggins_et_les_Plans_de_l'ingénieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Wiggins et les Plans de l'ingénieur est un roman policier pour la jeunesse écrit par Béatrice Nicodème.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Wiggins_et_les_Plans_de_l%27ing%C3%A9nieur</t>
+          <t>Wiggins_et_les_Plans_de_l'ingénieur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Wiggins
 Sherlock Holmes
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Wiggins_et_les_Plans_de_l%27ing%C3%A9nieur</t>
+          <t>Wiggins_et_les_Plans_de_l'ingénieur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Wiggins est invité par son copain Louis à passer les fêtes de Noël avec lui en Bretagne. Pour financer la traversée, Wiggins cumule plusieurs petits boulots : vente de journaux à la criée et vente d'oignons. Malheureusement il se fait voler son argent lors d'une bagarre avec une bande rivale des Irréguliers.
 Sherlock Holmes confie alors une mission à Wiggins en échange du paiement de la traversée : un dangereux criminel, Richard Western, vient de s'évader et Holmes le soupçonne de vouloir se cacher en Bretagne. Wiggins doit enquêter discrètement pour retrouver sa trace.
